--- a/src/main/resources/Design_Data.xlsx
+++ b/src/main/resources/Design_Data.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laksh\Desktop\Office-work\Monitize360_Design_Sample_Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E42CC-4577-4CAB-A47B-47FF52709566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{4A1B8C81-DE83-4FD3-B693-100D9D1A7845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="6" xr2:uid="{07C84C6F-AAA5-4758-A50B-0B9D029DF3E8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="20760" windowHeight="11820" firstSheet="4" activeTab="8" xr2:uid="{07C84C6F-AAA5-4758-A50B-0B9D029DF3E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tenant" sheetId="1" r:id="rId1"/>
@@ -27,6 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'HTTP API'!$A$4:$B$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <oleSize ref="A1:G14"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2546,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57041DCC-8BA8-4F0D-A34C-01A607DF0FFF}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2891,8 +2887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A763B23-6649-46E2-9C10-1D357F07AE44}">
   <dimension ref="A2:I30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
